--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H2">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I2">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J2">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N2">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O2">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P2">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q2">
-        <v>5.470917574484474</v>
+        <v>5.62329309555225</v>
       </c>
       <c r="R2">
-        <v>5.470917574484474</v>
+        <v>22.493172382209</v>
       </c>
       <c r="S2">
-        <v>0.01086590391845417</v>
+        <v>0.01023213160678221</v>
       </c>
       <c r="T2">
-        <v>0.01086590391845417</v>
+        <v>0.006748637101184806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H3">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I3">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J3">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N3">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P3">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q3">
-        <v>18.94754631528261</v>
+        <v>21.0852350167775</v>
       </c>
       <c r="R3">
-        <v>18.94754631528261</v>
+        <v>126.511410100665</v>
       </c>
       <c r="S3">
-        <v>0.03763211836941659</v>
+        <v>0.03836664672916398</v>
       </c>
       <c r="T3">
-        <v>0.03763211836941659</v>
+        <v>0.03795727794287711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H4">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I4">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J4">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N4">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O4">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P4">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q4">
-        <v>10.41160740260154</v>
+        <v>11.1048705220845</v>
       </c>
       <c r="R4">
-        <v>10.41160740260154</v>
+        <v>66.62922313250699</v>
       </c>
       <c r="S4">
-        <v>0.02067871141048857</v>
+        <v>0.02020639769748404</v>
       </c>
       <c r="T4">
-        <v>0.02067871141048857</v>
+        <v>0.01999079719012041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H5">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I5">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J5">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N5">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O5">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P5">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q5">
-        <v>16.70115645535411</v>
+        <v>17.3777109094855</v>
       </c>
       <c r="R5">
-        <v>16.70115645535411</v>
+        <v>104.266265456913</v>
       </c>
       <c r="S5">
-        <v>0.03317051644450129</v>
+        <v>0.03162044411149589</v>
       </c>
       <c r="T5">
-        <v>0.03317051644450129</v>
+        <v>0.03128305672085027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H6">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I6">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J6">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N6">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O6">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P6">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q6">
-        <v>3.419613828615996</v>
+        <v>3.808179786843001</v>
       </c>
       <c r="R6">
-        <v>3.419613828615996</v>
+        <v>22.849078721058</v>
       </c>
       <c r="S6">
-        <v>0.006791766608448666</v>
+        <v>0.006929355468254972</v>
       </c>
       <c r="T6">
-        <v>0.006791766608448666</v>
+        <v>0.006855419847615142</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H7">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I7">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J7">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N7">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O7">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P7">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q7">
-        <v>30.57646911209002</v>
+        <v>32.30307167269725</v>
       </c>
       <c r="R7">
-        <v>30.57646911209002</v>
+        <v>129.212286690789</v>
       </c>
       <c r="S7">
-        <v>0.06072856536663487</v>
+        <v>0.05877859735246402</v>
       </c>
       <c r="T7">
-        <v>0.06072856536663487</v>
+        <v>0.03876762321797263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H8">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I8">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J8">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N8">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O8">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P8">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q8">
-        <v>9.096367784795637</v>
+        <v>9.978013351787499</v>
       </c>
       <c r="R8">
-        <v>9.096367784795637</v>
+        <v>59.868080110725</v>
       </c>
       <c r="S8">
-        <v>0.0180664864734002</v>
+        <v>0.01815597089727957</v>
       </c>
       <c r="T8">
-        <v>0.0180664864734002</v>
+        <v>0.01796224826567858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H9">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I9">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J9">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N9">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P9">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q9">
-        <v>31.50364587964039</v>
+        <v>37.41379880934723</v>
       </c>
       <c r="R9">
-        <v>31.50364587964039</v>
+        <v>336.724189284125</v>
       </c>
       <c r="S9">
-        <v>0.0625700505534364</v>
+        <v>0.06807806508070985</v>
       </c>
       <c r="T9">
-        <v>0.0625700505534364</v>
+        <v>0.1010275170640937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H10">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I10">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J10">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N10">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O10">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P10">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q10">
-        <v>17.31113819127292</v>
+        <v>19.70456535990833</v>
       </c>
       <c r="R10">
-        <v>17.31113819127292</v>
+        <v>177.341088239175</v>
       </c>
       <c r="S10">
-        <v>0.03438201393907473</v>
+        <v>0.0358543832930379</v>
       </c>
       <c r="T10">
-        <v>0.03438201393907473</v>
+        <v>0.05320773020892346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H11">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I11">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J11">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N11">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O11">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P11">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q11">
-        <v>27.7686255515612</v>
+        <v>30.83514028736944</v>
       </c>
       <c r="R11">
-        <v>27.7686255515612</v>
+        <v>277.516262586325</v>
       </c>
       <c r="S11">
-        <v>0.05515184849393891</v>
+        <v>0.0561075526693618</v>
       </c>
       <c r="T11">
-        <v>0.05515184849393891</v>
+        <v>0.08326333493774118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H12">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I12">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J12">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N12">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O12">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P12">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q12">
-        <v>5.685712614669641</v>
+        <v>6.75726271305</v>
       </c>
       <c r="R12">
-        <v>5.685712614669641</v>
+        <v>60.81536441745001</v>
       </c>
       <c r="S12">
-        <v>0.01129251284411185</v>
+        <v>0.01229550020009043</v>
       </c>
       <c r="T12">
-        <v>0.01129251284411185</v>
+        <v>0.01824646242227265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H13">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I13">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J13">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N13">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O13">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P13">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q13">
-        <v>50.8387861482675</v>
+        <v>57.3188121225375</v>
       </c>
       <c r="R13">
-        <v>50.8387861482675</v>
+        <v>343.912872735225</v>
       </c>
       <c r="S13">
-        <v>0.1009719773871693</v>
+        <v>0.1042971830236121</v>
       </c>
       <c r="T13">
-        <v>0.1009719773871693</v>
+        <v>0.1031843411448596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H14">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I14">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J14">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N14">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O14">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P14">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q14">
-        <v>1.411788824445597</v>
+        <v>0.07815881932999999</v>
       </c>
       <c r="R14">
-        <v>1.411788824445597</v>
+        <v>0.4689529159799999</v>
       </c>
       <c r="S14">
-        <v>0.002803983337478586</v>
+        <v>0.0001422176137764936</v>
       </c>
       <c r="T14">
-        <v>0.002803983337478586</v>
+        <v>0.0001407001641971421</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H15">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I15">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J15">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N15">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O15">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P15">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q15">
-        <v>4.889478551703824</v>
+        <v>0.2930661884777778</v>
       </c>
       <c r="R15">
-        <v>4.889478551703824</v>
+        <v>2.6375956963</v>
       </c>
       <c r="S15">
-        <v>0.009711095703934552</v>
+        <v>0.00053326258458313</v>
       </c>
       <c r="T15">
-        <v>0.009711095703934552</v>
+        <v>0.0007913590787244675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H16">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I16">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J16">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N16">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O16">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P16">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q16">
-        <v>2.686750581668742</v>
+        <v>0.1543479157266666</v>
       </c>
       <c r="R16">
-        <v>2.686750581668742</v>
+        <v>1.38913124154</v>
       </c>
       <c r="S16">
-        <v>0.005336211572519326</v>
+        <v>0.0002808511240854471</v>
       </c>
       <c r="T16">
-        <v>0.005336211572519326</v>
+        <v>0.0004167817004988908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H17">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I17">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J17">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N17">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O17">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P17">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q17">
-        <v>4.309790033933782</v>
+        <v>0.2415348700955555</v>
       </c>
       <c r="R17">
-        <v>4.309790033933782</v>
+        <v>2.17381383086</v>
       </c>
       <c r="S17">
-        <v>0.008559764204060159</v>
+        <v>0.0004394963122942211</v>
       </c>
       <c r="T17">
-        <v>0.008559764204060159</v>
+        <v>0.000652210387255732</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H18">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I18">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J18">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N18">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O18">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P18">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q18">
-        <v>0.8824429396771906</v>
+        <v>0.05293034364</v>
       </c>
       <c r="R18">
-        <v>0.8824429396771906</v>
+        <v>0.47637309276</v>
       </c>
       <c r="S18">
-        <v>0.001752638394840765</v>
+        <v>9.631193553561333E-05</v>
       </c>
       <c r="T18">
-        <v>0.001752638394840765</v>
+        <v>0.0001429264433303811</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H19">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I19">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J19">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.6796972294029</v>
+        <v>20.4145605</v>
       </c>
       <c r="N19">
-        <v>19.6796972294029</v>
+        <v>40.829121</v>
       </c>
       <c r="O19">
-        <v>0.3575053262633079</v>
+        <v>0.3538032458052225</v>
       </c>
       <c r="P19">
-        <v>0.3575053262633079</v>
+        <v>0.2737772129294103</v>
       </c>
       <c r="Q19">
-        <v>7.890361497088058</v>
+        <v>0.44898423393</v>
       </c>
       <c r="R19">
-        <v>7.890361497088058</v>
+        <v>2.69390540358</v>
       </c>
       <c r="S19">
-        <v>0.01567121213982245</v>
+        <v>0.0008169707132242017</v>
       </c>
       <c r="T19">
-        <v>0.01567121213982245</v>
+        <v>0.0008082537067142143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H20">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I20">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J20">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.52120452620549</v>
+        <v>3.5537505</v>
       </c>
       <c r="N20">
-        <v>3.52120452620549</v>
+        <v>7.107500999999999</v>
       </c>
       <c r="O20">
-        <v>0.06396690753453857</v>
+        <v>0.06158978841018558</v>
       </c>
       <c r="P20">
-        <v>0.06396690753453857</v>
+        <v>0.04765892007993501</v>
       </c>
       <c r="Q20">
-        <v>16.22788082365087</v>
+        <v>1.6712471238885</v>
       </c>
       <c r="R20">
-        <v>16.22788082365087</v>
+        <v>10.027482743331</v>
       </c>
       <c r="S20">
-        <v>0.03223053380520562</v>
+        <v>0.003040997548679969</v>
       </c>
       <c r="T20">
-        <v>0.03223053380520562</v>
+        <v>0.003008550369118191</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H21">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I21">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J21">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.1950632480783</v>
+        <v>13.32522833333333</v>
       </c>
       <c r="N21">
-        <v>12.1950632480783</v>
+        <v>39.975685</v>
       </c>
       <c r="O21">
-        <v>0.2215379644556751</v>
+        <v>0.2309385516983846</v>
       </c>
       <c r="P21">
-        <v>0.2215379644556751</v>
+        <v>0.2680545492087383</v>
       </c>
       <c r="Q21">
-        <v>56.20236812542094</v>
+        <v>6.266548404915</v>
       </c>
       <c r="R21">
-        <v>56.20236812542094</v>
+        <v>56.398935644235</v>
       </c>
       <c r="S21">
-        <v>0.1116246998288876</v>
+        <v>0.01140259753667781</v>
       </c>
       <c r="T21">
-        <v>0.1116246998288876</v>
+        <v>0.01692139921788299</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H22">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I22">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J22">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.70114265330889</v>
+        <v>7.017941</v>
       </c>
       <c r="N22">
-        <v>6.70114265330889</v>
+        <v>21.053823</v>
       </c>
       <c r="O22">
-        <v>0.1217343012284163</v>
+        <v>0.1216274190507089</v>
       </c>
       <c r="P22">
-        <v>0.1217343012284163</v>
+        <v>0.1411751426744924</v>
       </c>
       <c r="Q22">
-        <v>30.88299573366904</v>
+        <v>3.300376239657</v>
       </c>
       <c r="R22">
-        <v>30.88299573366904</v>
+        <v>29.703386156913</v>
       </c>
       <c r="S22">
-        <v>0.06133736430633373</v>
+        <v>0.006005357263482804</v>
       </c>
       <c r="T22">
-        <v>0.06133736430633373</v>
+        <v>0.00891192093507958</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H23">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I23">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J23">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.7492366504901</v>
+        <v>10.98218566666667</v>
       </c>
       <c r="N23">
-        <v>10.7492366504901</v>
+        <v>32.946557</v>
       </c>
       <c r="O23">
-        <v>0.1952727885504958</v>
+        <v>0.1903314516568828</v>
       </c>
       <c r="P23">
-        <v>0.1952727885504958</v>
+        <v>0.2209211545622046</v>
       </c>
       <c r="Q23">
-        <v>49.53910799874783</v>
+        <v>5.164669328763001</v>
       </c>
       <c r="R23">
-        <v>49.53910799874783</v>
+        <v>46.482023958867</v>
       </c>
       <c r="S23">
-        <v>0.09839065940799545</v>
+        <v>0.009397620821011948</v>
       </c>
       <c r="T23">
-        <v>0.09839065940799545</v>
+        <v>0.01394602353534998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H24">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I24">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J24">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.2009397011126</v>
+        <v>2.406654</v>
       </c>
       <c r="N24">
-        <v>2.2009397011126</v>
+        <v>7.219962000000001</v>
       </c>
       <c r="O24">
-        <v>0.03998271196756623</v>
+        <v>0.04170954337861558</v>
       </c>
       <c r="P24">
-        <v>0.03998271196756623</v>
+        <v>0.04841302054521945</v>
       </c>
       <c r="Q24">
-        <v>10.14328673721939</v>
+        <v>1.131794023158</v>
       </c>
       <c r="R24">
-        <v>10.14328673721939</v>
+        <v>10.186146208422</v>
       </c>
       <c r="S24">
-        <v>0.02014579412016496</v>
+        <v>0.002059409886687555</v>
       </c>
       <c r="T24">
-        <v>0.02014579412016496</v>
+        <v>0.003056154243259244</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4702770000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.410831</v>
+      </c>
+      <c r="I25">
+        <v>0.04937502834767095</v>
+      </c>
+      <c r="J25">
+        <v>0.06312670039673911</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.4145605</v>
+      </c>
+      <c r="N25">
+        <v>40.829121</v>
+      </c>
+      <c r="O25">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P25">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q25">
+        <v>9.600498268258502</v>
+      </c>
+      <c r="R25">
+        <v>57.60298960955101</v>
+      </c>
+      <c r="S25">
+        <v>0.01746904529113085</v>
+      </c>
+      <c r="T25">
+        <v>0.01728265209604913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.6422255</v>
+      </c>
+      <c r="H26">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J26">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.5537505</v>
+      </c>
+      <c r="N26">
+        <v>7.107500999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.06158978841018558</v>
+      </c>
+      <c r="P26">
+        <v>0.04765892007993501</v>
+      </c>
+      <c r="Q26">
+        <v>16.49731119173775</v>
+      </c>
+      <c r="R26">
+        <v>65.989244766951</v>
+      </c>
+      <c r="S26">
+        <v>0.03001847074366733</v>
+      </c>
+      <c r="T26">
+        <v>0.0197987841797563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.6422255</v>
+      </c>
+      <c r="H27">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J27">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.32522833333333</v>
+      </c>
+      <c r="N27">
+        <v>39.975685</v>
+      </c>
+      <c r="O27">
+        <v>0.2309385516983846</v>
+      </c>
+      <c r="P27">
+        <v>0.2680545492087383</v>
+      </c>
+      <c r="Q27">
+        <v>61.85871476232251</v>
+      </c>
+      <c r="R27">
+        <v>371.152288573935</v>
+      </c>
+      <c r="S27">
+        <v>0.1125579797672498</v>
+      </c>
+      <c r="T27">
+        <v>0.1113569959051601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.6422255</v>
+      </c>
+      <c r="H28">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J28">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>7.017941</v>
+      </c>
+      <c r="N28">
+        <v>21.053823</v>
+      </c>
+      <c r="O28">
+        <v>0.1216274190507089</v>
+      </c>
+      <c r="P28">
+        <v>0.1411751426744924</v>
+      </c>
+      <c r="Q28">
+        <v>32.5788646676955</v>
+      </c>
+      <c r="R28">
+        <v>195.473188006173</v>
+      </c>
+      <c r="S28">
+        <v>0.05928042967261868</v>
+      </c>
+      <c r="T28">
+        <v>0.05864791263987008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.6422255</v>
+      </c>
+      <c r="H29">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J29">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.98218566666667</v>
+      </c>
+      <c r="N29">
+        <v>32.946557</v>
+      </c>
+      <c r="O29">
+        <v>0.1903314516568828</v>
+      </c>
+      <c r="P29">
+        <v>0.2209211545622046</v>
+      </c>
+      <c r="Q29">
+        <v>50.9817823475345</v>
+      </c>
+      <c r="R29">
+        <v>305.890694085207</v>
+      </c>
+      <c r="S29">
+        <v>0.09276633774271888</v>
+      </c>
+      <c r="T29">
+        <v>0.09177652898100742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="H25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="I25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="J25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>19.6796972294029</v>
-      </c>
-      <c r="N25">
-        <v>19.6796972294029</v>
-      </c>
-      <c r="O25">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="P25">
-        <v>0.3575053262633079</v>
-      </c>
-      <c r="Q25">
-        <v>90.69617481959507</v>
-      </c>
-      <c r="R25">
-        <v>90.69617481959507</v>
-      </c>
-      <c r="S25">
-        <v>0.1801335713696813</v>
-      </c>
-      <c r="T25">
-        <v>0.1801335713696813</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.6422255</v>
+      </c>
+      <c r="H30">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J30">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.406654</v>
+      </c>
+      <c r="N30">
+        <v>7.219962000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.04170954337861558</v>
+      </c>
+      <c r="P30">
+        <v>0.04841302054521945</v>
+      </c>
+      <c r="Q30">
+        <v>11.172230568477</v>
+      </c>
+      <c r="R30">
+        <v>67.03338341086202</v>
+      </c>
+      <c r="S30">
+        <v>0.020328965888047</v>
+      </c>
+      <c r="T30">
+        <v>0.02011205758874205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.6422255</v>
+      </c>
+      <c r="H31">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J31">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.4145605</v>
+      </c>
+      <c r="N31">
+        <v>40.829121</v>
+      </c>
+      <c r="O31">
+        <v>0.3538032458052225</v>
+      </c>
+      <c r="P31">
+        <v>0.2737772129294103</v>
+      </c>
+      <c r="Q31">
+        <v>94.76899332439275</v>
+      </c>
+      <c r="R31">
+        <v>379.075973297571</v>
+      </c>
+      <c r="S31">
+        <v>0.1724414494247913</v>
+      </c>
+      <c r="T31">
+        <v>0.1137343427638147</v>
       </c>
     </row>
   </sheetData>
